--- a/public/nova_instalacao.xlsx
+++ b/public/nova_instalacao.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnobrega\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnobrega\git\insieme-frontend\master\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3750C916-FFCF-4B64-8481-A58F05877A5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DCB81E-230E-45F6-A49A-7B306E2ED3A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AC42F7C6-52D1-4DDA-BA60-9D52E47C42AB}"/>
   </bookViews>
@@ -46,64 +46,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
-    <t>IDENTIFICAÇÃO DA ESTAÇÃO</t>
-  </si>
-  <si>
-    <t>DADOS FISCAIS</t>
-  </si>
-  <si>
-    <t>ENDEREÇO DE REMESSA</t>
-  </si>
-  <si>
-    <t>ENDEREÇO DE INSTALAÇÃO</t>
-  </si>
-  <si>
-    <t>CONFIGURAÇÃO</t>
-  </si>
-  <si>
-    <t>VELOCIDADE</t>
-  </si>
-  <si>
-    <t>ANTENA</t>
-  </si>
-  <si>
     <t>BUC</t>
   </si>
   <si>
-    <t>RAZÃO SOCIAL</t>
-  </si>
-  <si>
-    <t>NOME FANTASIA</t>
-  </si>
-  <si>
-    <t>INSCRIÇÃO ESTADUAL</t>
-  </si>
-  <si>
-    <t>ENDEREÇO</t>
-  </si>
-  <si>
-    <t>BAIRRO</t>
-  </si>
-  <si>
-    <t>CIDADE</t>
-  </si>
-  <si>
     <t>UF</t>
-  </si>
-  <si>
-    <t>CEP</t>
-  </si>
-  <si>
-    <t>CONTATO DE REMESSA</t>
-  </si>
-  <si>
-    <t>TELEFONE</t>
-  </si>
-  <si>
-    <t>CONTATO DO CLIENTE</t>
-  </si>
-  <si>
-    <t>TELEFONE DO CLIENTE</t>
   </si>
   <si>
     <t>LATITUDE</t>
@@ -112,40 +58,16 @@
     <t>LONGITUDE</t>
   </si>
   <si>
-    <t>ENDEREÇO DE GERENCIA</t>
-  </si>
-  <si>
     <t>VLAN</t>
   </si>
   <si>
-    <t>INTERCONEXÃO TPZ</t>
-  </si>
-  <si>
     <t>WAN CPE REDE</t>
-  </si>
-  <si>
-    <t>ENDEREÇO DE LAN</t>
   </si>
   <si>
     <t>WAN CPE HOST</t>
   </si>
   <si>
     <t>LOOPBACK CPE</t>
-  </si>
-  <si>
-    <t>ROTAS SUMARIZADAS</t>
-  </si>
-  <si>
-    <t>OBSERVAÇÃO</t>
-  </si>
-  <si>
-    <t>DESIGNAÇÃO CLIENTE**</t>
-  </si>
-  <si>
-    <t>DESIGNAÇÃO 3***</t>
-  </si>
-  <si>
-    <t>** a coluna "designação cliente" pode ser utilizada para colocar a UC, PC, SE etc</t>
   </si>
   <si>
     <r>
@@ -163,8 +85,14 @@
     </r>
   </si>
   <si>
+    <t>CLIENT DESIGNATION/DESIGNAÇÃO CLIENTE**</t>
+  </si>
+  <si>
+    <t>DESIGNATION/DESIGNAÇÃO 3***</t>
+  </si>
+  <si>
     <r>
-      <t>UF</t>
+      <t>BAND/BANDA</t>
     </r>
     <r>
       <rPr>
@@ -178,19 +106,13 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>BANDA</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>*</t>
-    </r>
+    <t>SPEED/VELOCIDADE</t>
+  </si>
+  <si>
+    <t>ANTENNA/ANTENA</t>
+  </si>
+  <si>
+    <t>COMPANY NAME/RAZÃO SOCIAL</t>
   </si>
   <si>
     <r>
@@ -211,11 +133,89 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> campo obrigatório</t>
+      <t xml:space="preserve"> campo obrigatório/Required field</t>
     </r>
   </si>
   <si>
-    <t>*** a coluna "designação 3" pode ser utilizada para colocar o "nome do site/PC"</t>
+    <t>** a coluna "designação cliente" pode ser utilizada para colocar a UC, PC, SE etc/ the "customer designation" column can be used to place the UC, PC, SE etc.</t>
+  </si>
+  <si>
+    <t>*** a coluna "designação 3" pode ser utilizada para colocar o "nome do site/PC"/ the "designation 3" column can be used to place the "site name / PC"</t>
+  </si>
+  <si>
+    <t>FANTASY NAME/NOME FANTASIA</t>
+  </si>
+  <si>
+    <t>STATE REGISTRATION/INSCRIÇÃO ESTADUAL</t>
+  </si>
+  <si>
+    <t>ADDRESS/ENDEREÇO</t>
+  </si>
+  <si>
+    <t>DISTRICT/BAIRRO</t>
+  </si>
+  <si>
+    <t>CITY/CIDADE</t>
+  </si>
+  <si>
+    <t>ZIPCODE/CEP</t>
+  </si>
+  <si>
+    <t>SHIPPING CONTACT/CONTATO DE REMESSA</t>
+  </si>
+  <si>
+    <t>PHONE/TELEFONE</t>
+  </si>
+  <si>
+    <t>CLIENT CONTACT/CONTATO DO CLIENTE</t>
+  </si>
+  <si>
+    <t>CLIENT PHONE/TELEFONE DO CLIENTE</t>
+  </si>
+  <si>
+    <t>MANAG. ADDRESS/ENDEREÇO DE GERENCIA</t>
+  </si>
+  <si>
+    <t>LAN ADDRESS/ENDEREÇO DE LAN</t>
+  </si>
+  <si>
+    <t>SUMMARIZED ROUTES/ROTAS SUMARIZADAS</t>
+  </si>
+  <si>
+    <t>OBSERVATION/OBSERVAÇÃO</t>
+  </si>
+  <si>
+    <t>INTERCONNECTION/INTERCONEXÃO TPZ</t>
+  </si>
+  <si>
+    <r>
+      <t>STATE/UF</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>STATION IDENTIFICATION/IDENTIFICAÇÃO DA ESTAÇÃO</t>
+  </si>
+  <si>
+    <t>TAX DATA/DADOS FISCAIS</t>
+  </si>
+  <si>
+    <t>SHIPPING ADDRESS/ENDEREÇO DE REMESSA</t>
+  </si>
+  <si>
+    <t>INSTALATION ADDRESS/ENDEREÇO DE INSTALAÇÃO</t>
+  </si>
+  <si>
+    <t>CONFIGURATION/CONFIGURAÇÃO</t>
   </si>
 </sst>
 </file>
@@ -226,7 +226,7 @@
     <numFmt numFmtId="164" formatCode="0\ &quot;kbps&quot;"/>
     <numFmt numFmtId="165" formatCode="00000\-000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,8 +271,20 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="21"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,6 +342,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,7 +461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -499,6 +517,12 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -15951,38 +15975,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB3C469-3EAF-40B5-B3DB-D4975565222B}">
-  <dimension ref="B1:AQ25"/>
+  <dimension ref="B1:AQ27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AI1" sqref="AI1:AP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="25.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="1" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" style="1"/>
     <col min="8" max="9" width="60.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="20.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="60.7109375" style="1" customWidth="1"/>
     <col min="13" max="14" width="25.7109375" style="1" customWidth="1"/>
     <col min="15" max="15" width="5.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19" style="1" customWidth="1"/>
     <col min="17" max="17" width="60.7109375" style="1" customWidth="1"/>
     <col min="18" max="19" width="25.7109375" style="1" customWidth="1"/>
     <col min="20" max="20" width="5.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" style="1" customWidth="1"/>
     <col min="22" max="25" width="20.7109375" style="1" customWidth="1"/>
     <col min="26" max="26" width="60.7109375" style="1" customWidth="1"/>
     <col min="27" max="28" width="25.7109375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="11.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" customWidth="1"/>
     <col min="31" max="35" width="20.7109375" style="1" customWidth="1"/>
     <col min="36" max="36" width="10.7109375" style="1"/>
-    <col min="37" max="41" width="21.5703125" style="1" customWidth="1"/>
+    <col min="37" max="37" width="42" style="1" customWidth="1"/>
+    <col min="38" max="41" width="21.5703125" style="1" customWidth="1"/>
     <col min="42" max="42" width="25.7109375" style="1" customWidth="1"/>
     <col min="43" max="43" width="50.7109375" style="1" customWidth="1"/>
     <col min="44" max="259" width="10.7109375" style="1"/>
@@ -17564,185 +17590,185 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:43" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="7"/>
+    </row>
+    <row r="2" spans="2:43" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19" t="s">
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="28" t="s">
+      <c r="P2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="25" t="s">
+      <c r="Y2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="22" t="s">
+      <c r="Z2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
-      <c r="AO1" s="23"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="7"/>
-    </row>
-    <row r="2" spans="2:43" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="AK2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="AL2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="AM2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="AO2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AM2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AN2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AO2" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="AP2" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ2" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:43" x14ac:dyDescent="0.25">
@@ -18583,18 +18609,24 @@
     </row>
     <row r="23" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
+    </row>
+    <row r="26" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B26" s="19"/>
+    </row>
+    <row r="27" spans="2:43" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B27" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
